--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_1995.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_1995.xlsx
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>375172.21000000002</t>
+          <t>375172.21</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>982.66999999999996</t>
+          <t>982.67</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>317.57999999999998</t>
+          <t>317.58</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>9318.9699999999993</t>
+          <t>9318.97</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>1560.3699999999999</t>
+          <t>1560.37</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>2348.0500000000002</t>
+          <t>2348.05</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>8053.2799999999997</t>
+          <t>8053.28</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="D79" s="0" t="inlineStr">
         <is>
-          <t>912.85000000000002</t>
+          <t>912.85</t>
         </is>
       </c>
       <c r="E79" s="0" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>17348.990000000002</t>
+          <t>17348.99</t>
         </is>
       </c>
       <c r="E82" s="0" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>228477.82000000001</t>
+          <t>228477.82</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>637.27999999999997</t>
+          <t>637.28</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>97247.460000000006</t>
+          <t>97247.46</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>250.69999999999999</t>
+          <t>250.7</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>166.13999999999999</t>
+          <t>166.14</t>
         </is>
       </c>
       <c r="E94" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>999.10000000000002</t>
+          <t>999.1</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
-          <t>375365.28999999998</t>
+          <t>375365.29</t>
         </is>
       </c>
       <c r="E155" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>9930.7299999999996</t>
+          <t>9930.73</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>197836.01000000001</t>
+          <t>197836.01</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>38030.809999999998</t>
+          <t>38030.81</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D171" s="0" t="inlineStr">
         <is>
-          <t>59530.419999999998</t>
+          <t>59530.42</t>
         </is>
       </c>
       <c r="E171" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>900.65999999999997</t>
+          <t>900.66</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>2288.0599999999999</t>
+          <t>2288.06</t>
         </is>
       </c>
       <c r="E182" s="0" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>1468.6600000000001</t>
+          <t>1468.66</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D189" s="0" t="inlineStr">
         <is>
-          <t>17771.330000000002</t>
+          <t>17771.33</t>
         </is>
       </c>
       <c r="E189" s="0" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="D190" s="0" t="inlineStr">
         <is>
-          <t>9358.7399999999998</t>
+          <t>9358.74</t>
         </is>
       </c>
       <c r="E190" s="0" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="D210" s="0" t="inlineStr">
         <is>
-          <t>434.66000000000003</t>
+          <t>434.66</t>
         </is>
       </c>
       <c r="E210" s="0" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D211" s="0" t="inlineStr">
         <is>
-          <t>523.60000000000002</t>
+          <t>523.6</t>
         </is>
       </c>
       <c r="E211" s="0" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t>1287.1800000000001</t>
+          <t>1287.18</t>
         </is>
       </c>
       <c r="E235" s="0" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="D288" s="0" t="inlineStr">
         <is>
-          <t>127961.21000000001</t>
+          <t>127961.21</t>
         </is>
       </c>
       <c r="E288" s="0" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
-          <t>1494360.1399999999</t>
+          <t>1494360.14</t>
         </is>
       </c>
       <c r="E326" s="0" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="D332" s="0" t="inlineStr">
         <is>
-          <t>5224.1599999999999</t>
+          <t>5224.16</t>
         </is>
       </c>
       <c r="E332" s="0" t="inlineStr">
@@ -9730,7 +9730,7 @@
       </c>
       <c r="D347" s="0" t="inlineStr">
         <is>
-          <t>284.83999999999997</t>
+          <t>284.84</t>
         </is>
       </c>
       <c r="E347" s="0" t="inlineStr">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="D358" s="0" t="inlineStr">
         <is>
-          <t>23397.130000000001</t>
+          <t>23397.13</t>
         </is>
       </c>
       <c r="E358" s="0" t="inlineStr">
@@ -11377,7 +11377,7 @@
       </c>
       <c r="D408" s="0" t="inlineStr">
         <is>
-          <t>2798.3000000000002</t>
+          <t>2798.3</t>
         </is>
       </c>
       <c r="E408" s="0" t="inlineStr">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="D410" s="0" t="inlineStr">
         <is>
-          <t>25513.439999999999</t>
+          <t>25513.44</t>
         </is>
       </c>
       <c r="E410" s="0" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="D507" s="0" t="inlineStr">
         <is>
-          <t>34491.379999999997</t>
+          <t>34491.38</t>
         </is>
       </c>
       <c r="E507" s="0" t="inlineStr">
